--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979241017CSDSDAY9homecage2024-12-06212712trace/processed_No.2979241017CSDSDAY9homecage2024-12-06212712trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979241017CSDSDAY9homecage2024-12-06212712trace/processed_No.2979241017CSDSDAY9homecage2024-12-06212712trace_transients.xlsx
@@ -557,7 +557,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" t="n">
         <v>123</v>
@@ -566,31 +566,31 @@
         <v>168</v>
       </c>
       <c r="D2" t="n">
-        <v>1.578323281441109</v>
+        <v>1.576739649384597</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9857556352422915</v>
+        <v>0.9676853046063763</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5925676461988175</v>
+        <v>-0.6090543447782206</v>
       </c>
       <c r="G2" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>8.193615772468434</v>
+        <v>8.152116905431427</v>
       </c>
       <c r="I2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2" t="n">
         <v>45</v>
       </c>
       <c r="K2" t="n">
-        <v>99.42869562262607</v>
+        <v>100.913233893168</v>
       </c>
       <c r="L2" t="n">
-        <v>5.865167826502938</v>
+        <v>5.810136619628917</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.6358353297640598</v>
+        <v>0.6792658655164278</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6444444444444445</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R2" t="n">
-        <v>1.261925146475855</v>
+        <v>1.304093054777694</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7837766817408023</v>
+        <v>0.7966317043194596</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>670</v>
+        <v>526</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979241017CSDSDAY9homecage2024-12-06212712trace/processed_No.2979241017CSDSDAY9homecage2024-12-06212712trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979241017CSDSDAY9homecage2024-12-06212712trace/processed_No.2979241017CSDSDAY9homecage2024-12-06212712trace_transients.xlsx
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B2" t="n">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C2" t="n">
         <v>168</v>
       </c>
       <c r="D2" t="n">
-        <v>1.576739649384597</v>
+        <v>2.267944695595484</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9676853046063763</v>
+        <v>1.515883521089811</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6090543447782206</v>
+        <v>-0.7520611745056731</v>
       </c>
       <c r="G2" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="H2" t="n">
-        <v>8.152116905431427</v>
+        <v>27.30410311389743</v>
       </c>
       <c r="I2" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K2" t="n">
-        <v>100.913233893168</v>
+        <v>132.0737282626875</v>
       </c>
       <c r="L2" t="n">
-        <v>5.810136619628917</v>
+        <v>9.682639249395098</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,24 +606,24 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.6792658655164278</v>
+        <v>0.6307691909495536</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="R2" t="n">
-        <v>1.304093054777694</v>
+        <v>0.4453521366819003</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7966317043194596</v>
+        <v>0.2514608003789737</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>526</v>
+        <v>277</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979241017CSDSDAY9homecage2024-12-06212712trace/processed_No.2979241017CSDSDAY9homecage2024-12-06212712trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979241017CSDSDAY9homecage2024-12-06212712trace/processed_No.2979241017CSDSDAY9homecage2024-12-06212712trace_transients.xlsx
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B2" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C2" t="n">
         <v>168</v>
       </c>
       <c r="D2" t="n">
-        <v>2.267944695595484</v>
+        <v>1.576739649384597</v>
       </c>
       <c r="E2" t="n">
-        <v>1.515883521089811</v>
+        <v>0.9676853046063763</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.7520611745056731</v>
+        <v>-0.6090543447782206</v>
       </c>
       <c r="G2" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>27.30410311389743</v>
+        <v>8.152116905431427</v>
       </c>
       <c r="I2" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J2" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K2" t="n">
-        <v>132.0737282626875</v>
+        <v>100.913233893168</v>
       </c>
       <c r="L2" t="n">
-        <v>9.682639249395098</v>
+        <v>5.810136619628917</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,24 +606,24 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.6307691909495536</v>
+        <v>0.6792658655164278</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7307692307692307</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4453521366819003</v>
+        <v>1.304093054777694</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2514608003789737</v>
+        <v>0.7966317043194596</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>277</v>
+        <v>526</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979241017CSDSDAY9homecage2024-12-06212712trace/processed_No.2979241017CSDSDAY9homecage2024-12-06212712trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979241017CSDSDAY9homecage2024-12-06212712trace/processed_No.2979241017CSDSDAY9homecage2024-12-06212712trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B2" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" t="n">
         <v>168</v>
       </c>
       <c r="D2" t="n">
-        <v>1.576739649384597</v>
+        <v>2.382287921738198</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9676853046063763</v>
+        <v>1.881147081549562</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6090543447782206</v>
+        <v>-0.5011408401886364</v>
       </c>
       <c r="G2" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H2" t="n">
-        <v>8.152116905431427</v>
+        <v>24.80501351986655</v>
       </c>
       <c r="I2" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J2" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2" t="n">
-        <v>100.913233893168</v>
+        <v>73.18471531345816</v>
       </c>
       <c r="L2" t="n">
-        <v>5.810136619628917</v>
+        <v>8.620107883040459</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,36 +606,122 @@
         </is>
       </c>
       <c r="P2" t="n">
+        <v>0.8452945090292523</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.5869565217391305</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.4508172305129926</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.973799281743345</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>n12</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v>561</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>93</v>
+      </c>
+      <c r="B3" t="n">
+        <v>123</v>
+      </c>
+      <c r="C3" t="n">
+        <v>168</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.576739649384597</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9676853046063763</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.6090543447782206</v>
+      </c>
+      <c r="G3" t="n">
+        <v>75</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.152116905431427</v>
+      </c>
+      <c r="I3" t="n">
+        <v>30</v>
+      </c>
+      <c r="J3" t="n">
+        <v>45</v>
+      </c>
+      <c r="K3" t="n">
+        <v>100.913233893168</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5.810136619628917</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
         <v>0.6792658655164278</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q3" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R3" t="n">
         <v>1.304093054777694</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S3" t="n">
         <v>0.7966317043194596</v>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>n22</t>
         </is>
       </c>
-      <c r="U2" t="n">
-        <v>526</v>
-      </c>
-      <c r="V2" t="inlineStr">
+      <c r="U3" t="n">
+        <v>562</v>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>processed_No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
         </is>
